--- a/lens data/PAOS_TEL_COM_CH1_v01.xlsx
+++ b/lens data/PAOS_TEL_COM_CH1_v01.xlsx
@@ -1560,7 +1560,7 @@
       <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="12.22"/>
@@ -1632,7 +1632,7 @@
       <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.89"/>
   </cols>
@@ -1677,13 +1677,13 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
@@ -2944,7 +2944,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.77"/>
   </cols>
